--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42975,6 +42975,41 @@
         <v>121800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>32400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43010,6 +43010,41 @@
         <v>32400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>63600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43045,6 +43045,41 @@
         <v>63600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>50400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43080,6 +43080,41 @@
         <v>50400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>84900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43115,6 +43115,41 @@
         <v>84900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>38900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43150,6 +43150,41 @@
         <v>38900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>70700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43185,6 +43185,41 @@
         <v>70700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>118800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43220,6 +43220,41 @@
         <v>118800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>265700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,41 @@
         <v>265700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>365300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         <v>365300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>357900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>357900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>283100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>283100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>129500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,76 @@
         <v>129500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>127400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>336000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,76 @@
         <v>336000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>267100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>86000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,41 @@
         <v>86000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>79300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43570,6 +43570,41 @@
         <v>79300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>158500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,41 @@
         <v>158500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>358800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,41 @@
         <v>358800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>573800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43675,6 +43675,76 @@
         <v>573800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>414600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>324000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>324000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>515600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>515600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>761800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2600"/>
+  <dimension ref="A1:I2601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91380,6 +91380,41 @@
         <v>761800</v>
       </c>
     </row>
+    <row r="2601">
+      <c r="A2601" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2601" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2601" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G2601" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H2601" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I2601" t="n">
+        <v>911500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2601"/>
+  <dimension ref="A1:I2602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91415,6 +91415,41 @@
         <v>911500</v>
       </c>
     </row>
+    <row r="2602">
+      <c r="A2602" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2602" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F2602" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2602" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H2602" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I2602" t="n">
+        <v>869900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2602"/>
+  <dimension ref="A1:I2603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91450,6 +91450,41 @@
         <v>869900</v>
       </c>
     </row>
+    <row r="2603">
+      <c r="A2603" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2603" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F2603" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G2603" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2603" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I2603" t="n">
+        <v>651100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2603"/>
+  <dimension ref="A1:I2604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91485,6 +91485,41 @@
         <v>651100</v>
       </c>
     </row>
+    <row r="2604">
+      <c r="A2604" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2604" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F2604" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G2604" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H2604" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2604" t="n">
+        <v>1250200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2604"/>
+  <dimension ref="A1:I2605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91520,6 +91520,41 @@
         <v>1250200</v>
       </c>
     </row>
+    <row r="2605">
+      <c r="A2605" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2605" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2605" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F2605" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2605" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H2605" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2605" t="n">
+        <v>751200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2605"/>
+  <dimension ref="A1:I2606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91555,6 +91555,41 @@
         <v>751200</v>
       </c>
     </row>
+    <row r="2606">
+      <c r="A2606" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2606" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F2606" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G2606" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H2606" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2606" t="n">
+        <v>938800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2606"/>
+  <dimension ref="A1:I2607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91590,6 +91590,41 @@
         <v>938800</v>
       </c>
     </row>
+    <row r="2607">
+      <c r="A2607" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2607" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2607" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F2607" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G2607" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H2607" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I2607" t="n">
+        <v>485400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2607"/>
+  <dimension ref="A1:I2608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91625,6 +91625,41 @@
         <v>485400</v>
       </c>
     </row>
+    <row r="2608">
+      <c r="A2608" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2608" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2608" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F2608" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G2608" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2608" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I2608" t="n">
+        <v>977000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2608"/>
+  <dimension ref="A1:I2609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91660,6 +91660,41 @@
         <v>977000</v>
       </c>
     </row>
+    <row r="2609">
+      <c r="A2609" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2609" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2609" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F2609" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G2609" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H2609" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I2609" t="n">
+        <v>437600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2609"/>
+  <dimension ref="A1:I2610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91695,6 +91695,41 @@
         <v>437600</v>
       </c>
     </row>
+    <row r="2610">
+      <c r="A2610" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2610" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2610" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2610" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F2610" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G2610" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2610" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I2610" t="n">
+        <v>828300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2610"/>
+  <dimension ref="A1:I2611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91730,6 +91730,41 @@
         <v>828300</v>
       </c>
     </row>
+    <row r="2611">
+      <c r="A2611" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2611" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2611" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2611" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2611" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F2611" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G2611" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2611" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I2611" t="n">
+        <v>548200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2611"/>
+  <dimension ref="A1:I2612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91765,6 +91765,41 @@
         <v>548200</v>
       </c>
     </row>
+    <row r="2612">
+      <c r="A2612" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2612" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2612" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2612" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F2612" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G2612" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H2612" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I2612" t="n">
+        <v>276300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2612"/>
+  <dimension ref="A1:I2613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91800,6 +91800,41 @@
         <v>276300</v>
       </c>
     </row>
+    <row r="2613">
+      <c r="A2613" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2613" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2613" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2613" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F2613" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G2613" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H2613" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I2613" t="n">
+        <v>329000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2613"/>
+  <dimension ref="A1:I2614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91835,6 +91835,41 @@
         <v>329000</v>
       </c>
     </row>
+    <row r="2614">
+      <c r="A2614" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2614" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2614" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2614" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F2614" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G2614" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H2614" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I2614" t="n">
+        <v>382400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7089.xlsx
+++ b/data/7089.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2614"/>
+  <dimension ref="A1:I2615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91870,6 +91870,41 @@
         <v>382400</v>
       </c>
     </row>
+    <row r="2615">
+      <c r="A2615" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2615" t="inlineStr">
+        <is>
+          <t>7089</t>
+        </is>
+      </c>
+      <c r="D2615" t="inlineStr">
+        <is>
+          <t>LIIHEN</t>
+        </is>
+      </c>
+      <c r="E2615" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F2615" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G2615" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H2615" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I2615" t="n">
+        <v>202600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
